--- a/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="443">
   <si>
     <t xml:space="preserve">Sample QC Template</t>
   </si>
@@ -83,6 +83,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Version : 4.4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
@@ -134,7 +137,7 @@
     <t xml:space="preserve">Workflow Action</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample QC instructions</t>
+    <t xml:space="preserve">Sample QC template instructions</t>
   </si>
   <si>
     <t xml:space="preserve">Sample QC template store the quality control information captured on a sample. It stores separately the quality and quality flags.</t>
@@ -1669,7 +1672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1683,6 +1686,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1893,7 +1900,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
@@ -1924,2122 +1931,2125 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="M3" s="2"/>
-      <c r="Q3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="AE3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="AE3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="AE4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="AE4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="P5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="str">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E6),ISBLANK(G6)),"",(E6-F6)*G6)</f>
         <v/>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="str">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E7),ISBLANK(G7)),"",(E7-F7)*G7)</f>
         <v/>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="str">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E8),ISBLANK(G8)),"",(E8-F8)*G8)</f>
         <v/>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="str">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E9),ISBLANK(G9)),"",(E9-F9)*G9)</f>
         <v/>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="str">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E10),ISBLANK(G10)),"",(E10-F10)*G10)</f>
         <v/>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="str">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E11),ISBLANK(G11)),"",(E11-F11)*G11)</f>
         <v/>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="str">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E12),ISBLANK(G12)),"",(E12-F12)*G12)</f>
         <v/>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="str">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E13),ISBLANK(G13)),"",(E13-F13)*G13)</f>
         <v/>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E14),ISBLANK(G14)),"",(E14-F14)*G14)</f>
         <v/>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E15),ISBLANK(G15)),"",(E15-F15)*G15)</f>
         <v/>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="str">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E16),ISBLANK(G16)),"",(E16-F16)*G16)</f>
         <v/>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="str">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E17),ISBLANK(G17)),"",(E17-F17)*G17)</f>
         <v/>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="str">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E18),ISBLANK(G18)),"",(E18-F18)*G18)</f>
         <v/>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="str">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E19),ISBLANK(G19)),"",(E19-F19)*G19)</f>
         <v/>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E20),ISBLANK(G20)),"",(E20-F20)*G20)</f>
         <v/>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E21),ISBLANK(G21)),"",(E21-F21)*G21)</f>
         <v/>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E22),ISBLANK(G22)),"",(E22-F22)*G22)</f>
         <v/>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="str">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E23),ISBLANK(G23)),"",(E23-F23)*G23)</f>
         <v/>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E24),ISBLANK(G24)),"",(E24-F24)*G24)</f>
         <v/>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="str">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E25),ISBLANK(G25)),"",(E25-F25)*G25)</f>
         <v/>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="str">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E26),ISBLANK(G26)),"",(E26-F26)*G26)</f>
         <v/>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E27),ISBLANK(G27)),"",(E27-F27)*G27)</f>
         <v/>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="str">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E28),ISBLANK(G28)),"",(E28-F28)*G28)</f>
         <v/>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14" t="str">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E29),ISBLANK(G29)),"",(E29-F29)*G29)</f>
         <v/>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E30),ISBLANK(G30)),"",(E30-F30)*G30)</f>
         <v/>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="str">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E31),ISBLANK(G31)),"",(E31-F31)*G31)</f>
         <v/>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="str">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E32),ISBLANK(G32)),"",(E32-F32)*G32)</f>
         <v/>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="str">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E33),ISBLANK(G33)),"",(E33-F33)*G33)</f>
         <v/>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E34),ISBLANK(G34)),"",(E34-F34)*G34)</f>
         <v/>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14" t="str">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E35),ISBLANK(G35)),"",(E35-F35)*G35)</f>
         <v/>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="17"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14" t="str">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E36),ISBLANK(G36)),"",(E36-F36)*G36)</f>
         <v/>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14" t="str">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E37),ISBLANK(G37)),"",(E37-F37)*G37)</f>
         <v/>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="17"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14" t="str">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E38),ISBLANK(G38)),"",(E38-F38)*G38)</f>
         <v/>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14" t="str">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E39),ISBLANK(G39)),"",(E39-F39)*G39)</f>
         <v/>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="17"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="str">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E40),ISBLANK(G40)),"",(E40-F40)*G40)</f>
         <v/>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="17"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14" t="str">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E41),ISBLANK(G41)),"",(E41-F41)*G41)</f>
         <v/>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="17"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="str">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E42),ISBLANK(G42)),"",(E42-F42)*G42)</f>
         <v/>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="17"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14" t="str">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E43),ISBLANK(G43)),"",(E43-F43)*G43)</f>
         <v/>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="17"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14" t="str">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E44),ISBLANK(G44)),"",(E44-F44)*G44)</f>
         <v/>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="17"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14" t="str">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E45),ISBLANK(G45)),"",(E45-F45)*G45)</f>
         <v/>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="17"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E46),ISBLANK(G46)),"",(E46-F46)*G46)</f>
         <v/>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="17"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14" t="str">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E47),ISBLANK(G47)),"",(E47-F47)*G47)</f>
         <v/>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="17"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14" t="str">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E48),ISBLANK(G48)),"",(E48-F48)*G48)</f>
         <v/>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="17"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14" t="str">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E49),ISBLANK(G49)),"",(E49-F49)*G49)</f>
         <v/>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="17"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14" t="str">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E50),ISBLANK(G50)),"",(E50-F50)*G50)</f>
         <v/>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="17"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14" t="str">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E51),ISBLANK(G51)),"",(E51-F51)*G51)</f>
         <v/>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="17"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14" t="str">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E52),ISBLANK(G52)),"",(E52-F52)*G52)</f>
         <v/>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="17"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14" t="str">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E53),ISBLANK(G53)),"",(E53-F53)*G53)</f>
         <v/>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="17"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14" t="str">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E54),ISBLANK(G54)),"",(E54-F54)*G54)</f>
         <v/>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="17"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14" t="str">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E55),ISBLANK(G55)),"",(E55-F55)*G55)</f>
         <v/>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="17"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14" t="str">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E56),ISBLANK(G56)),"",(E56-F56)*G56)</f>
         <v/>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="17"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14" t="str">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E57),ISBLANK(G57)),"",(E57-F57)*G57)</f>
         <v/>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="17"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14" t="str">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E58),ISBLANK(G58)),"",(E58-F58)*G58)</f>
         <v/>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="17"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14" t="str">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E59),ISBLANK(G59)),"",(E59-F59)*G59)</f>
         <v/>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="17"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14" t="str">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E60),ISBLANK(G60)),"",(E60-F60)*G60)</f>
         <v/>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="17"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14" t="str">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E61),ISBLANK(G61)),"",(E61-F61)*G61)</f>
         <v/>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="17"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14" t="str">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E62),ISBLANK(G62)),"",(E62-F62)*G62)</f>
         <v/>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="17"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14" t="str">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E63),ISBLANK(G63)),"",(E63-F63)*G63)</f>
         <v/>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="17"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14" t="str">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E64),ISBLANK(G64)),"",(E64-F64)*G64)</f>
         <v/>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="17"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14" t="str">
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E65),ISBLANK(G65)),"",(E65-F65)*G65)</f>
         <v/>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="17"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14" t="str">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E66),ISBLANK(G66)),"",(E66-F66)*G66)</f>
         <v/>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="17"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14" t="str">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E67),ISBLANK(G67)),"",(E67-F67)*G67)</f>
         <v/>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="17"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14" t="str">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E68),ISBLANK(G68)),"",(E68-F68)*G68)</f>
         <v/>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="17"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14" t="str">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E69),ISBLANK(G69)),"",(E69-F69)*G69)</f>
         <v/>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="17"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14" t="str">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E70),ISBLANK(G70)),"",(E70-F70)*G70)</f>
         <v/>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="17"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14" t="str">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E71),ISBLANK(G71)),"",(E71-F71)*G71)</f>
         <v/>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="17"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14" t="str">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E72),ISBLANK(G72)),"",(E72-F72)*G72)</f>
         <v/>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="17"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14" t="str">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E73),ISBLANK(G73)),"",(E73-F73)*G73)</f>
         <v/>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="17"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14" t="str">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E74),ISBLANK(G74)),"",(E74-F74)*G74)</f>
         <v/>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="17"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14" t="str">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E75),ISBLANK(G75)),"",(E75-F75)*G75)</f>
         <v/>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="17"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14" t="str">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E76),ISBLANK(G76)),"",(E76-F76)*G76)</f>
         <v/>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="17"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14" t="str">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E77),ISBLANK(G77)),"",(E77-F77)*G77)</f>
         <v/>
       </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="17"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14" t="str">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E78),ISBLANK(G78)),"",(E78-F78)*G78)</f>
         <v/>
       </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="17"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14" t="str">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E79),ISBLANK(G79)),"",(E79-F79)*G79)</f>
         <v/>
       </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="17"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14" t="str">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E80),ISBLANK(G80)),"",(E80-F80)*G80)</f>
         <v/>
       </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="17"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="18"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14" t="str">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E81),ISBLANK(G81)),"",(E81-F81)*G81)</f>
         <v/>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="17"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="18"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14" t="str">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E82),ISBLANK(G82)),"",(E82-F82)*G82)</f>
         <v/>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="17"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14" t="str">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E83),ISBLANK(G83)),"",(E83-F83)*G83)</f>
         <v/>
       </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="17"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14" t="str">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E84),ISBLANK(G84)),"",(E84-F84)*G84)</f>
         <v/>
       </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="17"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="18"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14" t="str">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E85),ISBLANK(G85)),"",(E85-F85)*G85)</f>
         <v/>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="17"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="18"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14" t="str">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E86),ISBLANK(G86)),"",(E86-F86)*G86)</f>
         <v/>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="17"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="18"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14" t="str">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E87),ISBLANK(G87)),"",(E87-F87)*G87)</f>
         <v/>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="17"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14" t="str">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E88),ISBLANK(G88)),"",(E88-F88)*G88)</f>
         <v/>
       </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="17"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14" t="str">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E89),ISBLANK(G89)),"",(E89-F89)*G89)</f>
         <v/>
       </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="17"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14" t="str">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E90),ISBLANK(G90)),"",(E90-F90)*G90)</f>
         <v/>
       </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="17"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14" t="str">
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E91),ISBLANK(G91)),"",(E91-F91)*G91)</f>
         <v/>
       </c>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="17"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14" t="str">
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E92),ISBLANK(G92)),"",(E92-F92)*G92)</f>
         <v/>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="17"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14" t="str">
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E93),ISBLANK(G93)),"",(E93-F93)*G93)</f>
         <v/>
       </c>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="17"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14" t="str">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E94),ISBLANK(G94)),"",(E94-F94)*G94)</f>
         <v/>
       </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="17"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14" t="str">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E95),ISBLANK(G95)),"",(E95-F95)*G95)</f>
         <v/>
       </c>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="17"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14" t="str">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E96),ISBLANK(G96)),"",(E96-F96)*G96)</f>
         <v/>
       </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="17"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14" t="str">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E97),ISBLANK(G97)),"",(E97-F97)*G97)</f>
         <v/>
       </c>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="17"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14" t="str">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E98),ISBLANK(G98)),"",(E98-F98)*G98)</f>
         <v/>
       </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="17"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14" t="str">
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E99),ISBLANK(G99)),"",(E99-F99)*G99)</f>
         <v/>
       </c>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="17"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14" t="str">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15" t="str">
         <f aca="false">IF(OR(ISBLANK(E100),ISBLANK(G100)),"",(E100-F100)*G100)</f>
         <v/>
       </c>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="17"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="18"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23" t="str">
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24" t="str">
         <f aca="false">IF(OR(ISBLANK(E101),ISBLANK(G101)),"",(E101-F101)*G101)</f>
         <v/>
       </c>
-      <c r="I101" s="23"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="25"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="27"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M102" s="2"/>
@@ -6775,14 +6785,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>19</v>
+      <c r="A1" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6824,7 +6834,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6846,7 +6856,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6868,7 +6878,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6909,8 +6919,8 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>23</v>
+      <c r="A7" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -6929,7 +6939,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6947,13 +6957,13 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="33"/>
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6971,13 +6981,13 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="33"/>
+      <c r="A10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6995,13 +7005,13 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="33"/>
+      <c r="A11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7019,13 +7029,13 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="33"/>
+      <c r="A12" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7043,13 +7053,13 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="33"/>
+      <c r="A13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7067,13 +7077,13 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="33"/>
+      <c r="A14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="34"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7091,13 +7101,13 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="33"/>
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -7115,13 +7125,13 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="33"/>
+      <c r="A16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7139,13 +7149,13 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="33"/>
+      <c r="A17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="34"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7163,13 +7173,13 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="33"/>
+      <c r="A18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="34"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7187,13 +7197,13 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="33"/>
+      <c r="A19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="34"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7211,13 +7221,13 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="33"/>
+      <c r="A20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="34"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7235,13 +7245,13 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="33"/>
+      <c r="A21" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7259,13 +7269,13 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="33"/>
+      <c r="A22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="34"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7283,13 +7293,13 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="33"/>
+      <c r="A23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="34"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -7307,13 +7317,13 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="33"/>
+      <c r="A24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="34"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7653,7 +7663,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
@@ -7663,2301 +7673,2301 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>18</v>
+      <c r="E1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>49</v>
       </c>
+      <c r="F2" s="35" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>54</v>
       </c>
+      <c r="F3" s="35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>57</v>
       </c>
+      <c r="E4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="A8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="34"/>
+      <c r="A9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="34"/>
+      <c r="A10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="34"/>
+      <c r="A11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="34"/>
+      <c r="A12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="34"/>
+      <c r="A13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="B15" s="35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>75</v>
       </c>
+      <c r="B16" s="35" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>77</v>
       </c>
+      <c r="B17" s="35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>79</v>
       </c>
+      <c r="B18" s="35" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>81</v>
       </c>
+      <c r="B19" s="35" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>83</v>
       </c>
+      <c r="B20" s="35" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>85</v>
       </c>
+      <c r="B21" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>87</v>
       </c>
+      <c r="B22" s="35" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>89</v>
       </c>
+      <c r="B23" s="35" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>91</v>
       </c>
+      <c r="B24" s="35" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>93</v>
       </c>
+      <c r="B25" s="35" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>70</v>
+      <c r="A26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="34" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="34" t="s">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="34" t="s">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="34" t="s">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="34" t="s">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="34" t="s">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="34" t="s">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="34" t="s">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="34" t="s">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="34" t="s">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="34" t="s">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="34" t="s">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="34" t="s">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="34" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="34" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="34" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="34" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="34" t="s">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="34" t="s">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="34" t="s">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="34" t="s">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="34" t="s">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="34" t="s">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B69" s="34" t="s">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="34" t="s">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="34" t="s">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" s="34" t="s">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="34" t="s">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34" t="s">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="34" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="34" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="34" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="34" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="34" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="34" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="34" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="34" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="34" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="34" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="34" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" s="34" t="s">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" s="34" t="s">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" s="34" t="s">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="34" t="s">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" s="34" t="s">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" s="34" t="s">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="34" t="s">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="34" t="s">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" s="34" t="s">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="34" t="s">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" s="34" t="s">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="34" t="s">
-        <v>238</v>
+      <c r="B182" s="35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="34" t="s">
-        <v>239</v>
+      <c r="B183" s="35" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="34" t="s">
-        <v>240</v>
+      <c r="B184" s="35" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="34" t="s">
-        <v>241</v>
+      <c r="B185" s="35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="34" t="s">
-        <v>242</v>
+      <c r="B186" s="35" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="34" t="s">
-        <v>243</v>
+      <c r="B187" s="35" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="34" t="s">
-        <v>244</v>
+      <c r="B188" s="35" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="34" t="s">
-        <v>245</v>
+      <c r="B189" s="35" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="34" t="s">
-        <v>246</v>
+      <c r="B190" s="35" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="34" t="s">
-        <v>247</v>
+      <c r="B191" s="35" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="34" t="s">
-        <v>248</v>
+      <c r="B192" s="35" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="34" t="s">
-        <v>249</v>
+      <c r="B193" s="35" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="34" t="s">
-        <v>250</v>
+      <c r="B194" s="35" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="34" t="s">
-        <v>251</v>
+      <c r="B195" s="35" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="34" t="s">
-        <v>252</v>
+      <c r="B196" s="35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="34" t="s">
-        <v>253</v>
+      <c r="B197" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="34" t="s">
-        <v>254</v>
+      <c r="B198" s="35" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="34" t="s">
-        <v>255</v>
+      <c r="B199" s="35" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="34" t="s">
-        <v>256</v>
+      <c r="B200" s="35" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="34" t="s">
-        <v>257</v>
+      <c r="B201" s="35" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="34" t="s">
-        <v>258</v>
+      <c r="B202" s="35" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="34" t="s">
-        <v>259</v>
+      <c r="B203" s="35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="34" t="s">
-        <v>260</v>
+      <c r="B204" s="35" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="34" t="s">
-        <v>261</v>
+      <c r="B205" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="34" t="s">
-        <v>262</v>
+      <c r="B206" s="35" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="34" t="s">
-        <v>263</v>
+      <c r="B207" s="35" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="34" t="s">
-        <v>264</v>
+      <c r="B208" s="35" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="34" t="s">
-        <v>265</v>
+      <c r="B209" s="35" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="34" t="s">
-        <v>266</v>
+      <c r="B210" s="35" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="34" t="s">
-        <v>267</v>
+      <c r="B211" s="35" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="34" t="s">
-        <v>268</v>
+      <c r="B212" s="35" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="34" t="s">
-        <v>269</v>
+      <c r="B213" s="35" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="34" t="s">
-        <v>270</v>
+      <c r="B214" s="35" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="34" t="s">
-        <v>271</v>
+      <c r="B215" s="35" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="34" t="s">
-        <v>272</v>
+      <c r="B216" s="35" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="34" t="s">
-        <v>273</v>
+      <c r="B217" s="35" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="34" t="s">
-        <v>274</v>
+      <c r="B218" s="35" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="34" t="s">
-        <v>275</v>
+      <c r="B219" s="35" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="34" t="s">
-        <v>276</v>
+      <c r="B220" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="34" t="s">
-        <v>277</v>
+      <c r="B221" s="35" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="34" t="s">
-        <v>278</v>
+      <c r="B222" s="35" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="34" t="s">
-        <v>279</v>
+      <c r="B223" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="34" t="s">
-        <v>280</v>
+      <c r="B224" s="35" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="34" t="s">
-        <v>281</v>
+      <c r="B225" s="35" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="34" t="s">
-        <v>282</v>
+      <c r="B226" s="35" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="34" t="s">
-        <v>283</v>
+      <c r="B227" s="35" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="34" t="s">
-        <v>284</v>
+      <c r="B228" s="35" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="34" t="s">
-        <v>285</v>
+      <c r="B229" s="35" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="34" t="s">
-        <v>286</v>
+      <c r="B230" s="35" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="34" t="s">
-        <v>287</v>
+      <c r="B231" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="34" t="s">
-        <v>288</v>
+      <c r="B232" s="35" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="34" t="s">
-        <v>289</v>
+      <c r="B233" s="35" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B234" s="34" t="s">
-        <v>290</v>
+      <c r="B234" s="35" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B235" s="34" t="s">
-        <v>291</v>
+      <c r="B235" s="35" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B236" s="34" t="s">
-        <v>292</v>
+      <c r="B236" s="35" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B237" s="34" t="s">
-        <v>293</v>
+      <c r="B237" s="35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B238" s="34" t="s">
-        <v>294</v>
+      <c r="B238" s="35" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B239" s="34" t="s">
-        <v>295</v>
+      <c r="B239" s="35" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B240" s="34" t="s">
-        <v>296</v>
+      <c r="B240" s="35" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B241" s="34" t="s">
-        <v>297</v>
+      <c r="B241" s="35" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="34" t="s">
-        <v>298</v>
+      <c r="B242" s="35" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="34" t="s">
-        <v>299</v>
+      <c r="B243" s="35" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="34" t="s">
-        <v>300</v>
+      <c r="B244" s="35" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B245" s="34" t="s">
-        <v>301</v>
+      <c r="B245" s="35" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="34" t="s">
-        <v>302</v>
+      <c r="B246" s="35" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="34" t="s">
-        <v>303</v>
+      <c r="B247" s="35" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B248" s="34" t="s">
-        <v>304</v>
+      <c r="B248" s="35" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B249" s="34" t="s">
-        <v>305</v>
+      <c r="B249" s="35" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B250" s="34" t="s">
-        <v>306</v>
+      <c r="B250" s="35" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B251" s="34" t="s">
-        <v>307</v>
+      <c r="B251" s="35" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B252" s="34" t="s">
-        <v>308</v>
+      <c r="B252" s="35" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B253" s="34" t="s">
-        <v>309</v>
+      <c r="B253" s="35" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B254" s="34" t="s">
-        <v>310</v>
+      <c r="B254" s="35" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="34" t="s">
-        <v>311</v>
+      <c r="B255" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="34" t="s">
-        <v>312</v>
+      <c r="B256" s="35" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B257" s="34" t="s">
-        <v>313</v>
+      <c r="B257" s="35" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="34" t="s">
-        <v>314</v>
+      <c r="B258" s="35" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="34" t="s">
-        <v>315</v>
+      <c r="B259" s="35" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="34" t="s">
-        <v>316</v>
+      <c r="B260" s="35" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="34" t="s">
-        <v>317</v>
+      <c r="B261" s="35" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B262" s="34" t="s">
-        <v>318</v>
+      <c r="B262" s="35" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B263" s="34" t="s">
-        <v>319</v>
+      <c r="B263" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B264" s="34" t="s">
-        <v>320</v>
+      <c r="B264" s="35" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B265" s="34" t="s">
-        <v>321</v>
+      <c r="B265" s="35" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B266" s="34" t="s">
-        <v>322</v>
+      <c r="B266" s="35" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="34" t="s">
-        <v>323</v>
+      <c r="B267" s="35" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="34" t="s">
-        <v>324</v>
+      <c r="B268" s="35" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="34" t="s">
-        <v>325</v>
+      <c r="B269" s="35" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="34" t="s">
-        <v>326</v>
+      <c r="B270" s="35" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="34" t="s">
-        <v>327</v>
+      <c r="B271" s="35" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B272" s="34" t="s">
-        <v>328</v>
+      <c r="B272" s="35" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B273" s="34" t="s">
-        <v>329</v>
+      <c r="B273" s="35" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B274" s="34" t="s">
-        <v>330</v>
+      <c r="B274" s="35" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B275" s="34" t="s">
-        <v>331</v>
+      <c r="B275" s="35" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B276" s="34" t="s">
-        <v>332</v>
+      <c r="B276" s="35" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B277" s="34" t="s">
-        <v>333</v>
+      <c r="B277" s="35" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="34" t="s">
-        <v>334</v>
+      <c r="B278" s="35" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B279" s="34" t="s">
-        <v>335</v>
+      <c r="B279" s="35" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B280" s="34" t="s">
-        <v>336</v>
+      <c r="B280" s="35" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="34" t="s">
-        <v>337</v>
+      <c r="B281" s="35" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="34" t="s">
-        <v>338</v>
+      <c r="B282" s="35" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="34" t="s">
-        <v>339</v>
+      <c r="B283" s="35" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="34" t="s">
-        <v>340</v>
+      <c r="B284" s="35" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="34" t="s">
-        <v>341</v>
+      <c r="B285" s="35" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="34" t="s">
-        <v>342</v>
+      <c r="B286" s="35" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="34" t="s">
-        <v>343</v>
+      <c r="B287" s="35" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="34" t="s">
-        <v>344</v>
+      <c r="B288" s="35" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="34" t="s">
-        <v>345</v>
+      <c r="B289" s="35" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="34" t="s">
-        <v>346</v>
+      <c r="B290" s="35" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="34" t="s">
-        <v>347</v>
+      <c r="B291" s="35" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="34" t="s">
-        <v>348</v>
+      <c r="B292" s="35" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="34" t="s">
-        <v>349</v>
+      <c r="B293" s="35" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="34" t="s">
-        <v>350</v>
+      <c r="B294" s="35" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B295" s="34" t="s">
-        <v>351</v>
+      <c r="B295" s="35" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B296" s="34" t="s">
-        <v>352</v>
+      <c r="B296" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B297" s="34" t="s">
-        <v>353</v>
+      <c r="B297" s="35" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B298" s="34" t="s">
-        <v>354</v>
+      <c r="B298" s="35" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B299" s="34" t="s">
-        <v>355</v>
+      <c r="B299" s="35" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="34" t="s">
-        <v>356</v>
+      <c r="B300" s="35" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B301" s="34" t="s">
-        <v>357</v>
+      <c r="B301" s="35" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B302" s="34" t="s">
-        <v>358</v>
+      <c r="B302" s="35" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="34" t="s">
-        <v>359</v>
+      <c r="B303" s="35" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="34" t="s">
-        <v>360</v>
+      <c r="B304" s="35" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="34" t="s">
-        <v>361</v>
+      <c r="B305" s="35" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="34" t="s">
-        <v>362</v>
+      <c r="B306" s="35" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="34" t="s">
-        <v>363</v>
+      <c r="B307" s="35" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="34" t="s">
-        <v>364</v>
+      <c r="B308" s="35" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="34" t="s">
-        <v>365</v>
+      <c r="B309" s="35" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B310" s="34" t="s">
-        <v>366</v>
+      <c r="B310" s="35" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B311" s="34" t="s">
-        <v>367</v>
+      <c r="B311" s="35" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="34" t="s">
-        <v>368</v>
+      <c r="B312" s="35" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="34" t="s">
-        <v>369</v>
+      <c r="B313" s="35" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="34" t="s">
-        <v>370</v>
+      <c r="B314" s="35" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B315" s="34" t="s">
-        <v>371</v>
+      <c r="B315" s="35" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B316" s="34" t="s">
-        <v>372</v>
+      <c r="B316" s="35" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B317" s="34" t="s">
-        <v>373</v>
+      <c r="B317" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B318" s="34" t="s">
-        <v>374</v>
+      <c r="B318" s="35" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B319" s="34" t="s">
-        <v>375</v>
+      <c r="B319" s="35" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B320" s="34" t="s">
-        <v>376</v>
+      <c r="B320" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B321" s="34" t="s">
-        <v>377</v>
+      <c r="B321" s="35" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B322" s="34" t="s">
-        <v>378</v>
+      <c r="B322" s="35" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B323" s="34" t="s">
-        <v>379</v>
+      <c r="B323" s="35" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B324" s="34" t="s">
-        <v>380</v>
+      <c r="B324" s="35" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B325" s="34" t="s">
-        <v>381</v>
+      <c r="B325" s="35" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B326" s="34" t="s">
-        <v>382</v>
+      <c r="B326" s="35" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B327" s="34" t="s">
-        <v>383</v>
+      <c r="B327" s="35" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B328" s="34" t="s">
-        <v>384</v>
+      <c r="B328" s="35" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B329" s="34" t="s">
-        <v>385</v>
+      <c r="B329" s="35" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B330" s="34" t="s">
-        <v>386</v>
+      <c r="B330" s="35" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B331" s="34" t="s">
-        <v>387</v>
+      <c r="B331" s="35" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B332" s="34" t="s">
-        <v>388</v>
+      <c r="B332" s="35" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B333" s="34" t="s">
-        <v>389</v>
+      <c r="B333" s="35" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B334" s="34" t="s">
-        <v>390</v>
+      <c r="B334" s="35" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B335" s="34" t="s">
-        <v>391</v>
+      <c r="B335" s="35" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B336" s="34" t="s">
-        <v>392</v>
+      <c r="B336" s="35" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B337" s="34" t="s">
-        <v>393</v>
+      <c r="B337" s="35" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B338" s="34" t="s">
-        <v>394</v>
+      <c r="B338" s="35" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B339" s="34" t="s">
-        <v>395</v>
+      <c r="B339" s="35" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B340" s="34" t="s">
-        <v>396</v>
+      <c r="B340" s="35" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B341" s="34" t="s">
-        <v>397</v>
+      <c r="B341" s="35" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B342" s="34" t="s">
-        <v>398</v>
+      <c r="B342" s="35" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B343" s="34" t="s">
-        <v>399</v>
+      <c r="B343" s="35" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="34" t="s">
-        <v>400</v>
+      <c r="B344" s="35" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="34" t="s">
-        <v>401</v>
+      <c r="B345" s="35" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B346" s="34" t="s">
-        <v>402</v>
+      <c r="B346" s="35" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="34" t="s">
-        <v>403</v>
+      <c r="B347" s="35" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B348" s="34" t="s">
-        <v>404</v>
+      <c r="B348" s="35" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B349" s="34" t="s">
-        <v>405</v>
+      <c r="B349" s="35" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B350" s="34" t="s">
-        <v>406</v>
+      <c r="B350" s="35" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B351" s="34" t="s">
-        <v>407</v>
+      <c r="B351" s="35" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B352" s="34" t="s">
-        <v>408</v>
+      <c r="B352" s="35" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B353" s="34" t="s">
-        <v>409</v>
+      <c r="B353" s="35" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B354" s="34" t="s">
-        <v>410</v>
+      <c r="B354" s="35" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B355" s="34" t="s">
-        <v>411</v>
+      <c r="B355" s="35" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B356" s="34" t="s">
-        <v>412</v>
+      <c r="B356" s="35" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B357" s="34" t="s">
-        <v>413</v>
+      <c r="B357" s="35" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B358" s="34" t="s">
-        <v>414</v>
+      <c r="B358" s="35" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B359" s="34" t="s">
-        <v>415</v>
+      <c r="B359" s="35" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B360" s="34" t="s">
-        <v>416</v>
+      <c r="B360" s="35" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B361" s="34" t="s">
-        <v>417</v>
+      <c r="B361" s="35" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B362" s="34" t="s">
-        <v>418</v>
+      <c r="B362" s="35" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B363" s="34" t="s">
-        <v>419</v>
+      <c r="B363" s="35" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="34" t="s">
-        <v>420</v>
+      <c r="B364" s="35" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="34" t="s">
-        <v>421</v>
+      <c r="B365" s="35" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B366" s="34" t="s">
-        <v>422</v>
+      <c r="B366" s="35" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B367" s="34" t="s">
-        <v>423</v>
+      <c r="B367" s="35" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B368" s="34" t="s">
-        <v>424</v>
+      <c r="B368" s="35" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B369" s="34" t="s">
-        <v>425</v>
+      <c r="B369" s="35" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="34" t="s">
-        <v>426</v>
+      <c r="B370" s="35" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="34" t="s">
-        <v>427</v>
+      <c r="B371" s="35" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B372" s="34" t="s">
-        <v>428</v>
+      <c r="B372" s="35" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B373" s="34" t="s">
-        <v>429</v>
+      <c r="B373" s="35" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B374" s="34" t="s">
-        <v>430</v>
+      <c r="B374" s="35" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B375" s="34" t="s">
-        <v>431</v>
+      <c r="B375" s="35" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B376" s="34" t="s">
-        <v>432</v>
+      <c r="B376" s="35" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B377" s="34" t="s">
-        <v>433</v>
+      <c r="B377" s="35" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B378" s="34" t="s">
-        <v>434</v>
+      <c r="B378" s="35" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B379" s="34" t="s">
-        <v>435</v>
+      <c r="B379" s="35" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B380" s="34" t="s">
-        <v>436</v>
+      <c r="B380" s="35" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B381" s="34" t="s">
-        <v>437</v>
+      <c r="B381" s="35" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B382" s="34" t="s">
-        <v>438</v>
+      <c r="B382" s="35" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="34" t="s">
-        <v>439</v>
+      <c r="B383" s="35" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B384" s="34" t="s">
-        <v>440</v>
+      <c r="B384" s="35" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B385" s="34" t="s">
-        <v>441</v>
+      <c r="B385" s="35" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -1897,10 +1897,12 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
@@ -6785,7 +6787,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.21"/>
   </cols>
@@ -7663,7 +7665,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>

--- a/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="447">
   <si>
     <t xml:space="preserve">Sample QC Template</t>
   </si>
@@ -167,13 +167,7 @@
     <t xml:space="preserve">Coordinate of the measured sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unique barcode of the parent of the container holding the source sample. Provided by prefilling for validation. Do not fill manually.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Coordinate of the source sample container within its parent container. Using the alphanumerical coordinates names (e.g. A01). Provided by prefilling for validation.  Do not fill manually.</t>
@@ -1920,7 +1914,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
@@ -7005,7 +6999,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.21"/>
   </cols>
@@ -7250,10 +7244,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="3"/>
@@ -7274,10 +7268,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="3"/>
@@ -7301,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="3"/>
@@ -7325,7 +7319,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="3"/>
@@ -7349,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="3"/>
@@ -7373,7 +7367,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="3"/>
@@ -7397,7 +7391,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="3"/>
@@ -7421,7 +7415,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="3"/>
@@ -7445,7 +7439,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="3"/>
@@ -7469,7 +7463,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="3"/>
@@ -7493,7 +7487,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="3"/>
@@ -7517,7 +7511,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="3"/>
@@ -7541,7 +7535,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="3"/>
@@ -7565,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="3"/>
@@ -7589,7 +7583,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="3"/>
@@ -7929,7 +7923,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
@@ -7940,19 +7934,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>21</v>
@@ -7960,2280 +7954,2280 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="F2" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="35" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="35" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="35" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="35" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="35" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="35" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="35" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
@@ -98,10 +98,10 @@
     <t xml:space="preserve">Sample Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Container Location Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Container Location Coord</t>
+    <t xml:space="preserve">Sample Parent Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Current Volume (uL)</t>
@@ -1914,7 +1914,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
@@ -6999,7 +6999,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.21"/>
   </cols>
@@ -7923,7 +7923,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>

--- a/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_QC_v4_4_0.xlsx
@@ -98,10 +98,10 @@
     <t xml:space="preserve">Sample Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Container Location Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Container Location Coord</t>
+    <t xml:space="preserve">Sample Parent Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Current Volume (uL)</t>
@@ -1922,7 +1922,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
@@ -7007,7 +7007,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.21"/>
   </cols>
@@ -7931,7 +7931,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
